--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0461056-6B73-487C-ACBA-C134A527AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DC162-0178-486B-9542-B369A1967666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240607 16:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240611 09:51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,13 +272,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,7 +562,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -577,7 +585,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -597,7 +605,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -615,7 +623,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +641,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -651,7 +659,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -669,7 +677,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -687,7 +695,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -705,7 +713,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -723,7 +731,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -741,7 +749,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -763,7 +771,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -783,7 +791,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -801,7 +809,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -819,7 +827,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -837,7 +845,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -855,7 +863,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -873,7 +881,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -895,10 +903,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5">
         <f>C11-C18</f>
         <v>8553.39</v>
@@ -979,10 +987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1023,26 +1031,26 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>50840.17</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>1.64</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
         <f>SUM(B2:F2)</f>
         <v>50841.81</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1050,26 +1058,26 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>4559.59</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
         <v>50000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>444.35</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>165.9</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <f>SUM(B3:F3)</f>
         <v>55169.84</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <f>G3-G2</f>
         <v>4328.0299999999988</v>
       </c>
@@ -1078,28 +1086,84 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>12970.24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2000</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>50000</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <f>SUM(B4:F4)</f>
         <v>64970.239999999998</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <f>G4-G3</f>
         <v>9800.4000000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12095.22</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <f>SUM(B5:F5)</f>
+        <v>64095.22</v>
+      </c>
+      <c r="H5" s="9">
+        <f>G5-G4</f>
+        <v>-875.0199999999968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10773.75</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(B6:F6)</f>
+        <v>62773.75</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G6-G5</f>
+        <v>-1321.4700000000012</v>
       </c>
     </row>
   </sheetData>

--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DC162-0178-486B-9542-B369A1967666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE65B2-B2B4-41D8-A245-1387C0AA6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>20240611 09:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240614 15:11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -256,11 +260,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +292,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1028,29 +1043,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="13">
         <v>50840.17</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
         <v>1.64</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
         <f>SUM(B2:F2)</f>
         <v>50841.81</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1164,6 +1179,34 @@
       <c r="H6" s="9">
         <f>G6-G5</f>
         <v>-1321.4700000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10260.129999999999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1669.2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(B7:F7)</f>
+        <v>63929.329999999994</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7-G6</f>
+        <v>1155.5799999999945</v>
       </c>
     </row>
   </sheetData>

--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE65B2-B2B4-41D8-A245-1387C0AA6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB4E451-C0A2-46C4-A863-64C098B4AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>20240614 15:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240617 10:17:35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,14 +290,14 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -600,7 +604,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -620,7 +624,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -638,7 +642,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -656,7 +660,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -674,7 +678,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -692,7 +696,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -710,7 +714,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -728,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -746,7 +750,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -764,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -786,7 +790,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -806,7 +810,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -824,7 +828,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -842,7 +846,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -860,7 +864,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -878,7 +882,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -896,7 +900,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -918,10 +922,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5">
         <f>C11-C18</f>
         <v>8553.39</v>
@@ -1002,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1043,29 +1047,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>50840.17</v>
       </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
         <v>1.64</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <f>SUM(B2:F2)</f>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G8" si="0">SUM(B2:F2)</f>
         <v>50841.81</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1089,7 +1093,7 @@
         <v>165.9</v>
       </c>
       <c r="G3" s="9">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>55169.84</v>
       </c>
       <c r="H3" s="9">
@@ -1117,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>64970.239999999998</v>
       </c>
       <c r="H4" s="9">
@@ -1145,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>64095.22</v>
       </c>
       <c r="H5" s="9">
@@ -1173,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>62773.75</v>
       </c>
       <c r="H6" s="9">
@@ -1201,12 +1205,40 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>63929.329999999994</v>
       </c>
       <c r="H7" s="9">
         <f>G7-G6</f>
         <v>1155.5799999999945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>9124.85</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1670.2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>61795.049999999996</v>
+      </c>
+      <c r="H8" s="9">
+        <f>G8-G7</f>
+        <v>-2134.2799999999988</v>
       </c>
     </row>
   </sheetData>

--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB4E451-C0A2-46C4-A863-64C098B4AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA624B-D885-4AC4-BFC7-5A8EC7075F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工资" sheetId="1" r:id="rId1"/>
     <sheet name="老家燃气和电话费" sheetId="2" r:id="rId2"/>
     <sheet name="储蓄账户余额" sheetId="3" r:id="rId3"/>
+    <sheet name="借出" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +196,10 @@
   </si>
   <si>
     <t>20240617 10:17:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借给大姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1097,7 +1102,7 @@
         <v>55169.84</v>
       </c>
       <c r="H3" s="9">
-        <f>G3-G2</f>
+        <f t="shared" ref="H3:H8" si="1">G3-G2</f>
         <v>4328.0299999999988</v>
       </c>
     </row>
@@ -1125,7 +1130,7 @@
         <v>64970.239999999998</v>
       </c>
       <c r="H4" s="9">
-        <f>G4-G3</f>
+        <f t="shared" si="1"/>
         <v>9800.4000000000015</v>
       </c>
     </row>
@@ -1153,7 +1158,7 @@
         <v>64095.22</v>
       </c>
       <c r="H5" s="9">
-        <f>G5-G4</f>
+        <f t="shared" si="1"/>
         <v>-875.0199999999968</v>
       </c>
     </row>
@@ -1181,7 +1186,7 @@
         <v>62773.75</v>
       </c>
       <c r="H6" s="9">
-        <f>G6-G5</f>
+        <f t="shared" si="1"/>
         <v>-1321.4700000000012</v>
       </c>
     </row>
@@ -1209,7 +1214,7 @@
         <v>63929.329999999994</v>
       </c>
       <c r="H7" s="9">
-        <f>G7-G6</f>
+        <f t="shared" si="1"/>
         <v>1155.5799999999945</v>
       </c>
     </row>
@@ -1237,8 +1242,35 @@
         <v>61795.049999999996</v>
       </c>
       <c r="H8" s="9">
-        <f>G8-G7</f>
+        <f t="shared" si="1"/>
         <v>-2134.2799999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E459E-A1ED-4F97-821C-02A4355C7B36}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>20240621</v>
+      </c>
+      <c r="B1">
+        <v>5000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA624B-D885-4AC4-BFC7-5A8EC7075F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20429-A623-43BA-9686-16DD3C1BAB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工资" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,11 +195,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20240617 10:17:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>借给大姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已归还，20240626，微信零钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240627 16:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240617 10:17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +598,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -962,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB82331-3D93-4EA0-8463-534B3CDF9935}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1003,6 +1015,17 @@
         <v>181</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20240627</v>
+      </c>
+      <c r="C3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f t="shared" ref="G2:G8" si="0">SUM(B2:F2)</f>
+        <f t="shared" ref="G2:G9" si="0">SUM(B2:F2)</f>
         <v>50841.81</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -1102,7 +1125,7 @@
         <v>55169.84</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H8" si="1">G3-G2</f>
+        <f t="shared" ref="H3:H9" si="1">G3-G2</f>
         <v>4328.0299999999988</v>
       </c>
     </row>
@@ -1220,7 +1243,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9">
         <v>9124.85</v>
@@ -1244,6 +1267,34 @@
       <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>-2134.2799999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5606.19</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1000.16</v>
+      </c>
+      <c r="D9" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4840</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>61446.35</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>-348.69999999999709</v>
       </c>
     </row>
   </sheetData>
@@ -1254,23 +1305,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E459E-A1ED-4F97-821C-02A4355C7B36}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>20240621</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>5000</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/书摘/财务/工资.xlsx
+++ b/书摘/财务/工资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhbli\notes\书摘\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20429-A623-43BA-9686-16DD3C1BAB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D645B3-7FE2-4902-9455-28EE48B68477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工资" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>应发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>20240617 10:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240701 17:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,17 +978,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB82331-3D93-4EA0-8463-534B3CDF9935}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.2109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1024,6 +1028,20 @@
       </c>
       <c r="D3">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>20240701</v>
+      </c>
+      <c r="B4">
+        <v>490.64</v>
+      </c>
+      <c r="C4">
+        <v>44.1</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862FFA6-5F37-4133-8BD8-586BCE1A48B2}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f t="shared" ref="G2:G9" si="0">SUM(B2:F2)</f>
+        <f t="shared" ref="G2:G10" si="0">SUM(B2:F2)</f>
         <v>50841.81</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -1125,7 +1143,7 @@
         <v>55169.84</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H9" si="1">G3-G2</f>
+        <f t="shared" ref="H3:H10" si="1">G3-G2</f>
         <v>4328.0299999999988</v>
       </c>
     </row>
@@ -1295,6 +1313,34 @@
       <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>-348.69999999999709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5395.89</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1000.16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4619.67</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>61015.72</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>-430.62999999999738</v>
       </c>
     </row>
   </sheetData>
